--- a/chick_elong_overlap/data_embryo_elongation/data/ChickElongQuant_input.xlsx
+++ b/chick_elong_overlap/data_embryo_elongation/data/ChickElongQuant_input.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cristina\Chicken\FinalData-Elongation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454D3A23-1AB2-4228-AC09-E52574563BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A706B5-74A4-4E3F-BF20-89783E286C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{D995DD41-2314-49BF-B936-79C57E3055CE}"/>
   </bookViews>
@@ -240,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -326,6 +326,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -664,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7132307-30FC-4821-9A28-4122D374980D}">
   <dimension ref="A1:N1447"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E615" sqref="E615"/>
+    <sheetView tabSelected="1" topLeftCell="A535" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I563" sqref="I563"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -16648,8 +16651,8 @@
       <c r="H564" s="27">
         <v>0.91136899999999998</v>
       </c>
-      <c r="I564" s="27">
-        <v>3.4277950000000001</v>
+      <c r="I564" s="43">
+        <v>2.001506</v>
       </c>
       <c r="J564" s="27">
         <v>0.75074300000000005</v>
@@ -20535,7 +20538,7 @@
       <c r="A1447"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JSoceY/uOFm9IfnKxegFLuv9eZmFJJ96UoaiKlZk9OUmxciuVjDEGF/rHwuPH+McD2qbH5iKcjAHlDqRGhfkuw==" saltValue="pI9GjHjqXgQntjAAFSpqgw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="F9Sfo1XQpbWbMi6dS8vmTsZjllsOndoaK8aL+hgN8VSnaemS9oSXI/g2moY2igvpF3kAn7/o56bx94NQwYKTug==" saltValue="uE8FrjlM4ETtk4lzhVPB3A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>